--- a/A1_Bubble Sort/Version2/A1_Bubble_sort_V2.xlsx
+++ b/A1_Bubble Sort/Version2/A1_Bubble_sort_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akujo_vr\JAKUJOBI\SDSU-Courses\CSC 461 - Programming Languages\Programming_Languages_CSC461\A1_Bubble Sort\Version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCA1A96-C578-48BD-A77F-ECF37E053D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD25EC5-181A-4961-B968-AC6A42DD217F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4230DAA-1B07-4FBF-B5C8-F4DA5FF5051B}"/>
+    <workbookView xWindow="-15870" yWindow="32280" windowWidth="29040" windowHeight="15720" xr2:uid="{E4230DAA-1B07-4FBF-B5C8-F4DA5FF5051B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="105">
   <si>
     <t>+0000000001</t>
   </si>
@@ -74,9 +74,6 @@
     <t>+9999999999</t>
   </si>
   <si>
-    <t>trace</t>
-  </si>
-  <si>
     <t>+9000000000</t>
   </si>
   <si>
@@ -116,90 +113,48 @@
     <t>+0000000005</t>
   </si>
   <si>
-    <t xml:space="preserve"> incr i &lt; N  [Out_Loop]</t>
-  </si>
-  <si>
     <t>017</t>
   </si>
   <si>
-    <t>Check if 0 &lt; 1</t>
-  </si>
-  <si>
-    <t>Always jump to [Chk ]j</t>
-  </si>
-  <si>
     <t>016</t>
   </si>
   <si>
-    <t>-5000001011</t>
-  </si>
-  <si>
     <t>Move t -&gt; A_j+1</t>
   </si>
   <si>
-    <t>+0008000013</t>
-  </si>
-  <si>
     <t>Move A_j+1 -&gt; A_j</t>
   </si>
   <si>
-    <t>+0013000012</t>
-  </si>
-  <si>
     <t>[SWAP] Move A_j -&gt; t</t>
   </si>
   <si>
     <t>013</t>
   </si>
   <si>
-    <t>+0012000008</t>
-  </si>
-  <si>
-    <t>Add i + 1 -&gt; i</t>
-  </si>
-  <si>
     <t>012</t>
   </si>
   <si>
-    <t>+1001005005</t>
-  </si>
-  <si>
     <t>[Chk j] incr j &lt; N  [In_Loop]</t>
   </si>
   <si>
     <t>011</t>
   </si>
   <si>
-    <t>+7007002007</t>
-  </si>
-  <si>
-    <t>A_j+1 &lt; A_j jmp [Swap]</t>
-  </si>
-  <si>
     <t>010</t>
   </si>
   <si>
-    <t>-5013012013</t>
-  </si>
-  <si>
     <t>Load Arr(j+1)-&gt; A_j+1</t>
   </si>
   <si>
     <t>009</t>
   </si>
   <si>
-    <t>+6222007013</t>
-  </si>
-  <si>
     <t>Load Arr(j)-&gt; A_j</t>
   </si>
   <si>
     <t>008</t>
   </si>
   <si>
-    <t>+6222006012</t>
-  </si>
-  <si>
     <t>[In Loop] Add j + 1 -&gt; j+1</t>
   </si>
   <si>
@@ -239,9 +194,6 @@
     <t>004</t>
   </si>
   <si>
-    <t>+7005002003</t>
-  </si>
-  <si>
     <t>Store TEMP to Arr(i)</t>
   </si>
   <si>
@@ -341,44 +293,71 @@
     <t>0</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Arr = 200</t>
-  </si>
-  <si>
     <t>Make something to take in all the items into an array</t>
   </si>
   <si>
-    <t>Goal:</t>
-  </si>
-  <si>
-    <t>+7005002006</t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>Incr test [In_Loop]</t>
-  </si>
-  <si>
-    <t>Incr test [Out_Loop]</t>
-  </si>
-  <si>
-    <t>Print</t>
-  </si>
-  <si>
-    <t>Load</t>
+    <t>Store A_j into Arr(j)</t>
+  </si>
+  <si>
+    <t>Store A_j+1 into Arr(j+1)</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>+7006003007</t>
+  </si>
+  <si>
+    <t>+7005003006</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Arr = 222</t>
+  </si>
+  <si>
+    <t>Incr i test N-1 [Out_Loop]</t>
+  </si>
+  <si>
+    <t>+6222006011</t>
+  </si>
+  <si>
+    <t>+6222007012</t>
+  </si>
+  <si>
+    <t>+0011000008</t>
+  </si>
+  <si>
+    <t>+0012000011</t>
+  </si>
+  <si>
+    <t>+0008000012</t>
+  </si>
+  <si>
+    <t>-6011222006</t>
+  </si>
+  <si>
+    <t>-6012222007</t>
+  </si>
+  <si>
+    <t>-5011012016</t>
+  </si>
+  <si>
+    <t>A_j &lt; A_j+1 jmp [Swap]</t>
+  </si>
+  <si>
+    <t>+7005002002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,13 +371,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -413,9 +411,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,24 +751,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A226882A-01C1-43B0-9A3A-B90062E04D79}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -776,759 +779,744 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>50</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D36" s="1" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1538,7 +1526,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1548,7 +1536,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1558,7 +1546,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1568,7 +1556,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1578,7 +1566,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1587,9 +1575,7 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1597,62 +1583,20 @@
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/A1_Bubble Sort/Version2/A1_Bubble_sort_V2.xlsx
+++ b/A1_Bubble Sort/Version2/A1_Bubble_sort_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akujo_vr\JAKUJOBI\SDSU-Courses\CSC 461 - Programming Languages\Programming_Languages_CSC461\A1_Bubble Sort\Version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD25EC5-181A-4961-B968-AC6A42DD217F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC195043-3A5B-4454-9E21-9FD4E7F1FD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15870" yWindow="32280" windowWidth="29040" windowHeight="15720" xr2:uid="{E4230DAA-1B07-4FBF-B5C8-F4DA5FF5051B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="131">
   <si>
     <t>+0000000001</t>
   </si>
@@ -314,6 +314,9 @@
     <t>+7005003006</t>
   </si>
   <si>
+    <t>022</t>
+  </si>
+  <si>
     <t>Stop</t>
   </si>
   <si>
@@ -351,6 +354,81 @@
   </si>
   <si>
     <t>+7005002002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMP &lt; 50 </t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>TEMP &gt;= 151</t>
+  </si>
+  <si>
+    <t>[SORT] Load Arr(i) into TEMP</t>
+  </si>
+  <si>
+    <t>-5004009027</t>
+  </si>
+  <si>
+    <t>[Chk i] Incr I &lt; N [SORT]</t>
+  </si>
+  <si>
+    <t>+5004010027</t>
+  </si>
+  <si>
+    <t>+7005002023</t>
   </si>
 </sst>
 </file>
@@ -751,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A226882A-01C1-43B0-9A3A-B90062E04D79}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I56"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,9 +843,9 @@
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>85</v>
@@ -777,7 +855,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -793,8 +871,10 @@
       <c r="E2" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,8 +890,10 @@
       <c r="E3" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -827,8 +909,11 @@
       <c r="E4" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
@@ -842,8 +927,11 @@
         <v>79</v>
       </c>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -857,8 +945,11 @@
         <v>78</v>
       </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -872,8 +963,11 @@
         <v>77</v>
       </c>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -887,8 +981,11 @@
         <v>76</v>
       </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
@@ -902,8 +999,11 @@
         <v>75</v>
       </c>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -917,8 +1017,11 @@
         <v>74</v>
       </c>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -932,8 +1035,11 @@
         <v>50</v>
       </c>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -947,8 +1053,11 @@
         <v>71</v>
       </c>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -962,8 +1071,10 @@
         <v>70</v>
       </c>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -977,8 +1088,10 @@
         <v>68</v>
       </c>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -988,8 +1101,10 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1005,8 +1120,10 @@
       <c r="E16" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
@@ -1022,8 +1139,10 @@
       <c r="E17" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1039,8 +1158,10 @@
       <c r="E18" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1056,10 +1177,12 @@
       <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>48</v>
@@ -1073,8 +1196,10 @@
       <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1090,8 +1215,10 @@
       <c r="E21" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1107,8 +1234,10 @@
       <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1122,10 +1251,12 @@
         <v>39</v>
       </c>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>48</v>
@@ -1137,10 +1268,12 @@
         <v>37</v>
       </c>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>48</v>
@@ -1152,10 +1285,12 @@
         <v>35</v>
       </c>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>48</v>
@@ -1164,13 +1299,15 @@
         <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>48</v>
@@ -1182,10 +1319,12 @@
         <v>29</v>
       </c>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>48</v>
@@ -1197,10 +1336,12 @@
         <v>28</v>
       </c>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>48</v>
@@ -1212,10 +1353,12 @@
         <v>27</v>
       </c>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>48</v>
@@ -1227,10 +1370,12 @@
         <v>86</v>
       </c>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>48</v>
@@ -1242,8 +1387,10 @@
         <v>87</v>
       </c>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
@@ -1257,8 +1404,10 @@
         <v>32</v>
       </c>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -1269,11 +1418,13 @@
         <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -1289,8 +1440,10 @@
       <c r="E34" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -1304,8 +1457,10 @@
         <v>19</v>
       </c>
       <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,8 +1474,10 @@
         <v>16</v>
       </c>
       <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
@@ -1334,269 +1491,935 @@
         <v>13</v>
       </c>
       <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="C54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="1">
         <v>1</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
